--- a/data/trans_camb/P36BPD07_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Habitat-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-14.59437116400366</v>
+        <v>14.59437116400366</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-9.574861352957898</v>
+        <v>9.574861352957901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-12.00518849448472</v>
+        <v>12.00518849448471</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.29018245989635</v>
+        <v>10.30631166034657</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.43463481048408</v>
+        <v>6.00633570312051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.99799062396067</v>
+        <v>9.355471977602784</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-10.30631166034657</v>
+        <v>19.29018245989636</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-6.006335703120498</v>
+        <v>13.43463481048408</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.355471977602765</v>
+        <v>14.99799062396068</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.162991422808406</v>
+        <v>1.395352899589546</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1067462228329941</v>
+        <v>0.9293658788737608</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.133958223172171</v>
+        <v>1.156446573698543</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2125259706759794</v>
+        <v>0.7827225907720347</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1470526703521531</v>
+        <v>0.4725438424588752</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1641921820730383</v>
+        <v>0.802177083483482</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1158710584688046</v>
+        <v>2.155424512758657</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.06855835531868149</v>
+        <v>1.579643251364095</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.105180211021413</v>
+        <v>1.682800224632226</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-15.59178885250473</v>
+        <v>15.59178885250472</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-14.68571453467213</v>
+        <v>14.68571453467212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-15.13726391809138</v>
+        <v>15.13726391809138</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.54775153496373</v>
+        <v>11.22992591948425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.92383824103072</v>
+        <v>11.35572967638816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.76722925520503</v>
+        <v>12.56553145461889</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-11.22992591948425</v>
+        <v>19.54775153496371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-11.35572967638818</v>
+        <v>17.92383824103072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-12.56553145461887</v>
+        <v>17.76722925520503</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1883140029677891</v>
+        <v>0.9063284973366752</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1693510081727477</v>
+        <v>1.105652942502294</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1785476479440671</v>
+        <v>0.9945619125423965</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2327682702201893</v>
+        <v>0.595568516359946</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2040944941379616</v>
+        <v>0.7564431012785773</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2076383854533316</v>
+        <v>0.7652912870836122</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1393689529781022</v>
+        <v>1.25256446470746</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1332176580183753</v>
+        <v>1.509835865392096</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1489683581727266</v>
+        <v>1.266729678934229</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-6.587490168523679</v>
+        <v>6.587490168523679</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-4.112126742042954</v>
+        <v>4.112126742042946</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.343924891389296</v>
+        <v>5.343924891389296</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.29281764032122</v>
+        <v>2.089363562615021</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.17647839933225</v>
+        <v>0.2678812610597031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.621657545466745</v>
+        <v>2.450532326517199</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.089363562615035</v>
+        <v>11.29281764032122</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2678812610597087</v>
+        <v>8.176478399332257</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.450532326517192</v>
+        <v>8.621657545466746</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.07982192574846439</v>
+        <v>0.3770167375612535</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.04965762238315492</v>
+        <v>0.2392103395883712</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.06464132600582173</v>
+        <v>0.3083699462341794</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1347118745870748</v>
+        <v>0.1059631651709619</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09637715453911552</v>
+        <v>0.01334482610737731</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1022073165356507</v>
+        <v>0.1315326715488086</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.02601815060223565</v>
+        <v>0.733743384206245</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.003150356403782903</v>
+        <v>0.5487261868421293</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.0301614845300259</v>
+        <v>0.5355031766966993</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-14.00087749772263</v>
+        <v>14.00087749772263</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-11.63890744083398</v>
+        <v>11.63890744083398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-12.74028965959588</v>
+        <v>12.74028965959588</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.11322064676052</v>
+        <v>10.05568543293133</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.72494794275696</v>
+        <v>8.452582782984459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.07366989695784</v>
+        <v>10.02559172663317</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.05568543293134</v>
+        <v>18.11322064676052</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-8.452582782984459</v>
+        <v>14.72494794275697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.02559172663319</v>
+        <v>15.07366989695785</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.1668336180790519</v>
+        <v>0.8707663416184835</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.1326015740031567</v>
+        <v>0.9519429359461873</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1482212098896719</v>
+        <v>0.9070769187917128</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2129046748519714</v>
+        <v>0.5732525910422125</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1660530071698171</v>
+        <v>0.6040461338150304</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1740720027417203</v>
+        <v>0.649538453430005</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1230180434922261</v>
+        <v>1.265646132251355</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.09832712620639773</v>
+        <v>1.35682162915341</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1176254066404432</v>
+        <v>1.161181811660227</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-12.92292958701067</v>
+        <v>12.92292958701066</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-10.43115143085047</v>
+        <v>10.43115143085044</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-11.63597261714442</v>
+        <v>11.6359726171444</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.95799306937929</v>
+        <v>10.64775420906514</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.07193983542488</v>
+        <v>8.636875622707526</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-12.90954361676808</v>
+        <v>10.22513175991538</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-10.64775420906514</v>
+        <v>14.95799306937927</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-8.636875622707537</v>
+        <v>12.07193983542488</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.22513175991539</v>
+        <v>12.90954361676809</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.1531371977232865</v>
+        <v>0.8277519438900278</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.1202709561879147</v>
+        <v>0.7860955077306844</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1359583102524528</v>
+        <v>0.8072048310386665</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1760446317118263</v>
+        <v>0.6438235220867711</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1383888719617317</v>
+        <v>0.6035416549525449</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1500959170868133</v>
+        <v>0.6743132317232112</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1267212473651877</v>
+        <v>1.017411985101647</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.100661348200971</v>
+        <v>0.9717394972955287</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1201298740642782</v>
+        <v>0.9363579655733087</v>
       </c>
     </row>
     <row r="34">

--- a/data/trans_camb/P36BPD07_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Habitat-trans_camb.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P36BPD07_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>14.59437116400366</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.574861352957901</v>
+        <v>9.574861352957907</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>12.00518849448471</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.30631166034657</v>
+        <v>10.05946511224453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.00633570312051</v>
+        <v>5.984896364587352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.355471977602784</v>
+        <v>9.234547575319755</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.29018245989636</v>
+        <v>18.9675180725365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.43463481048408</v>
+        <v>12.98336383734627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.99799062396068</v>
+        <v>14.82347006851715</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>1.395352899589546</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.9293658788737608</v>
+        <v>0.9293658788737613</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.156446573698543</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.7827225907720347</v>
+        <v>0.8199925784067764</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4725438424588752</v>
+        <v>0.4839003043060707</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.802177083483482</v>
+        <v>0.8055148224638874</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.155424512758657</v>
+        <v>2.152504303421008</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.579643251364095</v>
+        <v>1.515382547222498</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.682800224632226</v>
+        <v>1.631321604551424</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>11.22992591948425</v>
+        <v>11.63360127500064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.35572967638816</v>
+        <v>11.17002077089201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12.56553145461889</v>
+        <v>12.37631864644885</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.54775153496371</v>
+        <v>19.58871260231336</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.92383824103072</v>
+        <v>17.93168818338515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.76722925520503</v>
+        <v>17.76247406660001</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.9063284973366752</v>
+        <v>0.9063284973366755</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.105652942502294</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.595568516359946</v>
+        <v>0.6184983516202281</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.7564431012785773</v>
+        <v>0.751571574845832</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7652912870836122</v>
+        <v>0.7633836115217872</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.25256446470746</v>
+        <v>1.25861836293499</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.509835865392096</v>
+        <v>1.533917234896561</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.266729678934229</v>
+        <v>1.277520026663649</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6.587490168523679</v>
+        <v>6.587490168523686</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.112126742042946</v>
+        <v>4.112126742042949</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.343924891389296</v>
+        <v>5.343924891389301</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.089363562615021</v>
+        <v>2.289284301587772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2678812610597031</v>
+        <v>0.5477927270062608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.450532326517199</v>
+        <v>2.502489443926528</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.29281764032122</v>
+        <v>11.67476189778045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.176478399332257</v>
+        <v>8.346749541902074</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.621657545466746</v>
+        <v>8.259902209355857</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.3770167375612535</v>
+        <v>0.3770167375612538</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.2392103395883712</v>
+        <v>0.2392103395883713</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3083699462341794</v>
+        <v>0.3083699462341797</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1059631651709619</v>
+        <v>0.120864570444194</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01334482610737731</v>
+        <v>0.02855393675197605</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1315326715488086</v>
+        <v>0.1403371799282287</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.733743384206245</v>
+        <v>0.7427780734870298</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5487261868421293</v>
+        <v>0.5646143402629394</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5355031766966993</v>
+        <v>0.5282810071424182</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>14.00087749772263</v>
+        <v>14.00087749772264</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>11.63890744083398</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.05568543293133</v>
+        <v>9.869325424817864</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.452582782984459</v>
+        <v>8.322227776977391</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.02559172663317</v>
+        <v>10.23267654917771</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.11322064676052</v>
+        <v>18.0053060510614</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.72494794275697</v>
+        <v>14.81203930240716</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.07366989695785</v>
+        <v>15.27970908690041</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.8707663416184835</v>
+        <v>0.8707663416184839</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.9519429359461873</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9070769187917128</v>
+        <v>0.9070769187917124</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.5732525910422125</v>
+        <v>0.5485908332082475</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6040461338150304</v>
+        <v>0.6092029187487995</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.649538453430005</v>
+        <v>0.6584210821328873</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.265646132251355</v>
+        <v>1.247210629562</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.35682162915341</v>
+        <v>1.437496650072012</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.161181811660227</v>
+        <v>1.179301924381924</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>12.92292958701066</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>10.43115143085044</v>
+        <v>10.43115143085045</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11.6359726171444</v>
+        <v>11.63597261714441</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.64775420906514</v>
+        <v>10.6282766955251</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.636875622707526</v>
+        <v>8.854588208032057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.22513175991538</v>
+        <v>10.15865355583854</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.95799306937927</v>
+        <v>15.03120776178742</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.07193983542488</v>
+        <v>12.372363483615</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.90954361676809</v>
+        <v>13.03261466101824</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.8277519438900278</v>
+        <v>0.8277519438900282</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.7860955077306844</v>
+        <v>0.7860955077306848</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.8072048310386665</v>
+        <v>0.8072048310386668</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6438235220867711</v>
+        <v>0.6333264023846972</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6035416549525449</v>
+        <v>0.6227617683482933</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.6743132317232112</v>
+        <v>0.6769080110986196</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.017411985101647</v>
+        <v>1.014881747823795</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9717394972955287</v>
+        <v>1.005258210078478</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9363579655733087</v>
+        <v>0.9391918714828468</v>
       </c>
     </row>
     <row r="34">
